--- a/diario.xlsx
+++ b/diario.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele\Desktop\universita\P2\progetto_P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EECC7C-7876-430B-861E-5B3CE2B45CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3613CF27-EC2E-4BDC-866F-AFB7D1453B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -42,9 +50,6 @@
     <t>Partecipanti</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>costruzione container scacchiera</t>
   </si>
   <si>
@@ -58,6 +63,12 @@
   </si>
   <si>
     <t>iniziato controller scacchi, svarion traiettoria libera (enum o brute force)</t>
+  </si>
+  <si>
+    <t>Totale ore:</t>
+  </si>
+  <si>
+    <t>Ore rimanenti:</t>
   </si>
 </sst>
 </file>
@@ -376,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,9 +399,10 @@
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="70.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,12 +416,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43909</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -417,75 +429,89 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43910</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f>C2*B2+C3*B3+C4*B4+C5*B5+C6*B6+C7*B7</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43911</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43913</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <f>150-F3</f>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43915</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6">
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2.5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43916</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7">
+        <v>3</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
